--- a/obligationsrenter.xlsx
+++ b/obligationsrenter.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="113">
   <si>
     <t>År</t>
   </si>
@@ -11645,11 +11645,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1357035968"/>
-        <c:axId val="1357028480"/>
+        <c:axId val="1382310992"/>
+        <c:axId val="1382312896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1357035968"/>
+        <c:axId val="1382310992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11669,7 +11669,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1357028480"/>
+        <c:crossAx val="1382312896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11678,7 +11678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1357028480"/>
+        <c:axId val="1382312896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -11726,7 +11726,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1357035968"/>
+        <c:crossAx val="1382310992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11807,7 +11807,7 @@
         <xdr:cNvPr id="2" name="Diagram 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12169,7 +12169,7 @@
   <dimension ref="A2:P1129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12179,18 +12179,27 @@
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="23" x14ac:dyDescent="0.25">
       <c r="B2" s="17"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="18"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
@@ -12203,8 +12212,19 @@
       <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>2019</v>
+      </c>
+      <c r="O5">
+        <f>VLOOKUP(N5,$B$6:$E$38600,3,FALSE)</f>
+        <v>-0.44477</v>
+      </c>
+      <c r="P5">
+        <f>VLOOKUP(N5,$B$6:$E$38600,4,FALSE)</f>
+        <v>2.0364300000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="7">
         <v>12</v>
@@ -12215,8 +12235,19 @@
       <c r="E6" s="10">
         <v>1.8328599999999999</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>2018</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O25" si="0">VLOOKUP(N6,$B$6:$E$38600,3,FALSE)</f>
+        <v>-0.59138000000000002</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P25" si="1">VLOOKUP(N6,$B$6:$E$38600,4,FALSE)</f>
+        <v>2.0469300000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="C7" s="7">
         <v>11</v>
@@ -12227,8 +12258,19 @@
       <c r="E7" s="10">
         <v>1.8591500000000001</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>2017</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>-0.44664999999999999</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>2.4649800000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="7">
         <v>10</v>
@@ -12239,8 +12281,19 @@
       <c r="E8" s="10">
         <v>1.9085799999999999</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>2016</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>2.7843599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="7">
         <v>9</v>
@@ -12251,8 +12304,19 @@
       <c r="E9" s="10">
         <v>1.9091800000000001</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>2015</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="7">
         <v>8</v>
@@ -12263,8 +12327,19 @@
       <c r="E10" s="10">
         <v>1.9101399999999999</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>2014</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0.22763</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>3.3209399999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="7">
         <v>7</v>
@@ -12275,8 +12350,19 @@
       <c r="E11" s="10">
         <v>1.9304300000000001</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>2013</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.25979000000000002</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>3.3853800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="C12" s="7">
         <v>6</v>
@@ -12287,8 +12373,19 @@
       <c r="E12" s="10">
         <v>1.9643999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>2012</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="7">
         <v>5</v>
@@ -12299,8 +12396,19 @@
       <c r="E13" s="10">
         <v>1.99509</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>2011</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>1.72</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7">
         <v>4</v>
@@ -12311,8 +12419,19 @@
       <c r="E14" s="10">
         <v>2.0149300000000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>2010</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="7">
         <v>3</v>
@@ -12323,8 +12442,19 @@
       <c r="E15" s="10">
         <v>2.03166</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>2009</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>3.17</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="7">
         <v>2</v>
@@ -12335,8 +12465,19 @@
       <c r="E16" s="10">
         <v>2.04413</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>2008</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>2019</v>
       </c>
@@ -12349,8 +12490,19 @@
       <c r="E17" s="10">
         <v>2.0364300000000002</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>2007</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>4.24</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7">
         <v>52</v>
@@ -12364,8 +12516,19 @@
       <c r="F18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>2006</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="7">
         <v>51</v>
@@ -12376,8 +12539,19 @@
       <c r="E19" s="10">
         <v>2.0591499999999998</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>2005</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>2.37</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="7">
         <v>50</v>
@@ -12388,8 +12562,19 @@
       <c r="E20" s="10">
         <v>2.0751599999999999</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>2004</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>2.17</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="7">
         <v>49</v>
@@ -12403,9 +12588,19 @@
       <c r="K21" s="7"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>2003</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>2.62</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="7">
         <v>48</v>
@@ -12416,8 +12611,19 @@
       <c r="E22" s="10">
         <v>2.0838999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>2002</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="7">
         <v>47</v>
@@ -12428,8 +12634,19 @@
       <c r="E23" s="10">
         <v>2.0903900000000002</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>2001</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>5.01</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="7">
         <v>46</v>
@@ -12440,8 +12657,19 @@
       <c r="E24" s="10">
         <v>2.0872299999999999</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>2000</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>4.79</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="7">
         <v>45</v>
@@ -12452,8 +12680,19 @@
       <c r="E25" s="10">
         <v>2.10737</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>1999</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>3.48</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7">
         <v>44</v>
@@ -12465,7 +12704,7 @@
         <v>2.08866</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="7">
         <v>43</v>
@@ -12477,7 +12716,7 @@
         <v>2.0953400000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="7">
         <v>42</v>
@@ -12489,7 +12728,7 @@
         <v>2.1107</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="7">
         <v>41</v>
@@ -12504,7 +12743,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="7">
         <v>40</v>
@@ -12516,7 +12755,7 @@
         <v>2.0883699999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="C31" s="7">
         <v>39</v>
@@ -12528,7 +12767,7 @@
         <v>2.0907399999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="C32" s="7">
         <v>38</v>
